--- a/Healthcare/Pfizer.xlsx
+++ b/Healthcare/Pfizer.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/To Be Modeled/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/Healthcare/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74954C94-26D0-2D41-8E6C-4B41C6F418AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF17B7E-5261-774C-A1F4-22C362F8D5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -537,9 +537,6 @@
     <t>Equity Value</t>
   </si>
   <si>
-    <t>Shares (No dilution)</t>
-  </si>
-  <si>
     <t>Intrinsic Value</t>
   </si>
   <si>
@@ -550,6 +547,9 @@
   </si>
   <si>
     <t>Buy/Sell</t>
+  </si>
+  <si>
+    <t>Shares</t>
   </si>
 </sst>
 </file>
@@ -2521,10 +2521,12 @@
     <v>1</v>
     <v>Powered by Refinitiv</v>
     <v>54.93</v>
-    <v>39.229999999999997</v>
-    <v>0.62170000000000003</v>
+    <v>37.204999999999998</v>
+    <v>0.62329999999999997</v>
     <v>-0.31</v>
-    <v>-7.6449999999999999E-3</v>
+    <v>-8.182E-3</v>
+    <v>-3.1699999999999999E-2</v>
+    <v>-8.4349999999999996E-4</v>
     <v>USD</v>
     <v>Pfizer Inc. is a research-based biopharmaceutical company. The Company is engaged in the discovery, development, manufacture, marketing, sale and distribution of biopharmaceutical products around the world. The Company operates through two segments: Biopharma and PC1. Biopharma is engaged in the science-based biopharmaceutical business. PC1 is its global contract development and manufacturing organization and supplier of specialty active pharmaceutical ingredients. The Company’s primary care products include Eliquis, Nurtec ODT/Vydura and the Premarin family; the Prevnar family, Nimenrix, FSME/IMMUN-TicoVac and Trumenba; Comirnaty, and Paxlovid. Its specialty care products include Xeljanz, Enbrel (outside the United States and Canada), Inflectra, Eucrisa/Staquis and Cibinqo; the Vyndaqel family, Oxbryta, BeneFIX and Genotropin, and Sulperazon, Medrol, Zavicefta, Zithromax, Vfend and Panzyga. Its oncology products include Ibrance, Xtandi, Inlyta, Retacrit, Lorbrena and Braftovi.</v>
     <v>83000</v>
@@ -2532,24 +2534,25 @@
     <v>XNYS</v>
     <v>XNYS</v>
     <v>66 HUDSON BOULEVARD EAST, NEW YORK, NY, 10001-2192 US</v>
-    <v>40.56</v>
+    <v>37.65</v>
     <v>Pharmaceuticals</v>
     <v>Stock</v>
-    <v>45035.99970873828</v>
+    <v>45057.99988568281</v>
     <v>0</v>
-    <v>40.200000000000003</v>
-    <v>227130736480</v>
+    <v>37.204999999999998</v>
+    <v>216180600000</v>
     <v>PFIZER INC.</v>
     <v>PFIZER INC.</v>
-    <v>40.43</v>
-    <v>7.3516000000000004</v>
-    <v>40.549999999999997</v>
-    <v>40.24</v>
+    <v>37.6</v>
+    <v>7.4675000000000002</v>
+    <v>37.89</v>
+    <v>37.58</v>
+    <v>37.548299999999998</v>
     <v>5644402000</v>
     <v>PFE</v>
     <v>PFIZER INC. (XNYS:PFE)</v>
-    <v>2289</v>
-    <v>21057020</v>
+    <v>28566365</v>
+    <v>21305445</v>
     <v>1942</v>
   </rv>
   <rv s="2">
@@ -2581,6 +2584,8 @@
     <k n="Beta"/>
     <k n="Change"/>
     <k n="Change (%)"/>
+    <k n="Change (Extended hours)"/>
+    <k n="Change % (Extended hours)"/>
     <k n="Currency" t="s"/>
     <k n="Description" t="s"/>
     <k n="Employees"/>
@@ -2601,6 +2606,7 @@
     <k n="P/E"/>
     <k n="Previous close"/>
     <k n="Price"/>
+    <k n="Price (Extended hours)"/>
     <k n="Shares outstanding"/>
     <k n="Ticker symbol" t="s"/>
     <k n="UniqueName" t="s"/>
@@ -2617,7 +2623,7 @@
 <file path=xl/richData/rdsupportingpropertybag.xml><?xml version="1.0" encoding="utf-8"?>
 <supportingPropertyBags xmlns="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2">
   <spbArrays count="1">
-    <a count="42">
+    <a count="45">
       <v t="s">%EntityServiceId</v>
       <v t="s">_Format</v>
       <v t="s">%IsRefreshable</v>
@@ -2628,13 +2634,16 @@
       <v t="s">Name</v>
       <v t="s">_SubLabel</v>
       <v t="s">Price</v>
+      <v t="s">Price (Extended hours)</v>
       <v t="s">Exchange</v>
       <v t="s">Official name</v>
       <v t="s">Last trade time</v>
       <v t="s">Ticker symbol</v>
       <v t="s">Exchange abbreviation</v>
       <v t="s">Change</v>
+      <v t="s">Change (Extended hours)</v>
       <v t="s">Change (%)</v>
+      <v t="s">Change % (Extended hours)</v>
       <v t="s">Currency</v>
       <v t="s">Previous close</v>
       <v t="s">Open</v>
@@ -2700,13 +2709,19 @@
       <v>8</v>
       <v>9</v>
       <v>4</v>
+      <v>1</v>
+      <v>1</v>
+      <v>5</v>
     </spb>
     <spb s="4">
-      <v>Delayed 15 minutes</v>
+      <v>at close</v>
       <v>from previous close</v>
       <v>from previous close</v>
       <v>Source: Nasdaq</v>
       <v>GMT</v>
+      <v>Delayed 15 minutes</v>
+      <v>from close</v>
+      <v>from close</v>
     </spb>
   </spbData>
 </supportingPropertyBags>
@@ -2751,6 +2766,9 @@
     <k n="Year incorporated" t="i"/>
     <k n="`%EntityServiceId" t="i"/>
     <k n="Shares outstanding" t="i"/>
+    <k n="Price (Extended hours)" t="i"/>
+    <k n="Change (Extended hours)" t="i"/>
+    <k n="Change % (Extended hours)" t="i"/>
   </s>
   <s>
     <k n="Price" t="s"/>
@@ -2758,6 +2776,9 @@
     <k n="Change (%)" t="s"/>
     <k n="ExchangeID" t="s"/>
     <k n="Last trade time" t="s"/>
+    <k n="Price (Extended hours)" t="s"/>
+    <k n="Change (Extended hours)" t="s"/>
+    <k n="Change % (Extended hours)" t="s"/>
   </s>
 </spbStructures>
 </file>
@@ -3119,10 +3140,10 @@
   <dimension ref="A1:AV118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AK83" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="AK79" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AW106" sqref="AW106"/>
+      <selection pane="bottomRight" activeCell="AQ91" sqref="AQ91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5341,15 +5362,15 @@
       </c>
       <c r="AT16" s="30">
         <f>AU101/AM3</f>
-        <v>2.263836703677863</v>
+        <v>2.1546955048340477</v>
       </c>
       <c r="AU16" s="30">
         <f>AU101/AM28</f>
-        <v>7.2399189238811683</v>
+        <v>6.890877215351269</v>
       </c>
       <c r="AV16" s="31">
         <f>AU101/AM106</f>
-        <v>8.7253942022972613</v>
+        <v>8.3047366601359922</v>
       </c>
     </row>
     <row r="17" spans="1:45" ht="19" x14ac:dyDescent="0.25">
@@ -15019,7 +15040,7 @@
       </c>
       <c r="AU95" s="38" cm="1">
         <f t="array" ref="AU95">_FV(A1,"Beta")</f>
-        <v>0.62170000000000003</v>
+        <v>0.62329999999999997</v>
       </c>
     </row>
     <row r="96" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15270,7 +15291,7 @@
       </c>
       <c r="AU97" s="36">
         <f>(AU94)+((AU95)*(AU96-AU94))</f>
-        <v>6.771418500000001E-2</v>
+        <v>6.7783065000000003E-2</v>
       </c>
     </row>
     <row r="98" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -15645,7 +15666,7 @@
       </c>
       <c r="AU100" s="34">
         <f>AU99/AU103</f>
-        <v>0.13625279854478808</v>
+        <v>0.14217315530836921</v>
       </c>
     </row>
     <row r="101" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15771,7 +15792,7 @@
       </c>
       <c r="AU101" s="39" cm="1">
         <f t="array" ref="AU101">_FV(A1,"Market cap",TRUE)</f>
-        <v>227130736480</v>
+        <v>216180600000</v>
       </c>
     </row>
     <row r="102" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -15897,7 +15918,7 @@
       </c>
       <c r="AU102" s="34">
         <f>AU101/AU103</f>
-        <v>0.86374720145521189</v>
+        <v>0.85782684469163084</v>
       </c>
     </row>
     <row r="103" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16023,7 +16044,7 @@
       </c>
       <c r="AU103" s="40">
         <f>AU99+AU101</f>
-        <v>262959736480</v>
+        <v>252009600000</v>
       </c>
     </row>
     <row r="104" spans="1:47" ht="20" thickBot="1" x14ac:dyDescent="0.3">
@@ -16313,7 +16334,7 @@
       </c>
       <c r="AU105" s="26">
         <f>(AU100*AU92)+(AU102*AU97)</f>
-        <v>6.2744731358287301E-2</v>
+        <v>6.2587889413060663E-2</v>
       </c>
     </row>
     <row r="106" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16511,7 +16532,7 @@
       <c r="AQ107" s="42"/>
       <c r="AR107" s="45">
         <f>AR106*(1+AU107)/(AU108-AU107)</f>
-        <v>507875473143.5238</v>
+        <v>509994671065.63568</v>
       </c>
       <c r="AS107" s="46" t="s">
         <v>148</v>
@@ -16542,7 +16563,7 @@
       </c>
       <c r="AR108" s="45">
         <f>AR107+AR106</f>
-        <v>526577544653.05096</v>
+        <v>528696742575.16284</v>
       </c>
       <c r="AS108" s="46" t="s">
         <v>144</v>
@@ -16552,7 +16573,7 @@
       </c>
       <c r="AU108" s="50">
         <f>AU105</f>
-        <v>6.2744731358287301E-2</v>
+        <v>6.2587889413060663E-2</v>
       </c>
     </row>
     <row r="109" spans="1:47" ht="19" x14ac:dyDescent="0.25">
@@ -16567,7 +16588,7 @@
       </c>
       <c r="AO110" s="39">
         <f>NPV(AU108,AN108,AO108,AP108,AQ108,AR108)</f>
-        <v>465001838159.48157</v>
+        <v>466879464407.41046</v>
       </c>
     </row>
     <row r="111" spans="1:47" ht="20" x14ac:dyDescent="0.25">
@@ -16594,12 +16615,12 @@
       </c>
       <c r="AO113" s="39">
         <f>AO110+AO111-AO112</f>
-        <v>451904838159.48157</v>
+        <v>453782464407.41046</v>
       </c>
     </row>
     <row r="114" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN114" s="51" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AO114" s="52">
         <f>AM34*(1+(AS16*5))</f>
@@ -16608,34 +16629,34 @@
     </row>
     <row r="115" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN115" s="53" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AO115" s="54">
         <f>AO113/AO114</f>
-        <v>83.289575920943122</v>
+        <v>83.63563703983921</v>
       </c>
     </row>
     <row r="116" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN116" s="51" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AO116" s="55" cm="1">
         <f t="array" ref="AO116">_FV(A1,"Price")</f>
-        <v>40.24</v>
+        <v>37.58</v>
       </c>
     </row>
     <row r="117" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN117" s="56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AO117" s="57">
         <f>AO115/AO116-1</f>
-        <v>1.0698204751725426</v>
+        <v>1.225535844593912</v>
       </c>
     </row>
     <row r="118" spans="40:41" ht="20" x14ac:dyDescent="0.25">
       <c r="AN118" s="56" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AO118" s="58" t="str">
         <f>IF(AO115&gt;AO116,"BUY","SELL")</f>
